--- a/xls_data/2016-1.xlsx
+++ b/xls_data/2016-1.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="VRKT" sheetId="1" r:id="rId1"/>
-    <sheet name="TSRT" sheetId="2" r:id="rId2"/>
-    <sheet name="KZBG" sheetId="3" r:id="rId3"/>
-    <sheet name="AGMS" sheetId="4" r:id="rId4"/>
-    <sheet name="TBL01" sheetId="5" r:id="rId5"/>
+    <sheet name="KZBG" sheetId="2" r:id="rId2"/>
+    <sheet name="AGMS" sheetId="3" r:id="rId3"/>
+    <sheet name="TBL01" sheetId="4" r:id="rId4"/>
+    <sheet name="TSRT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="744">
   <si>
     <t>ნივთიერება</t>
   </si>
@@ -78,6 +78,2217 @@
   </si>
   <si>
     <t>CO</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>7.29</t>
+  </si>
+  <si>
+    <t>19.12</t>
+  </si>
+  <si>
+    <t>33.39</t>
+  </si>
+  <si>
+    <t>76.12</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>11.39</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>9.29</t>
+  </si>
+  <si>
+    <t>7.75</t>
+  </si>
+  <si>
+    <t>17.38</t>
+  </si>
+  <si>
+    <t>27.02</t>
+  </si>
+  <si>
+    <t>62.38</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>13.35</t>
+  </si>
+  <si>
+    <t>8.91</t>
+  </si>
+  <si>
+    <t>17.53</t>
+  </si>
+  <si>
+    <t>28.77</t>
+  </si>
+  <si>
+    <t>79.25</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>23.67</t>
+  </si>
+  <si>
+    <t>11.08</t>
+  </si>
+  <si>
+    <t>35.80</t>
+  </si>
+  <si>
+    <t>57.73</t>
+  </si>
+  <si>
+    <t>85.88</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>19.33</t>
+  </si>
+  <si>
+    <t>10.08</t>
+  </si>
+  <si>
+    <t>44.68</t>
+  </si>
+  <si>
+    <t>70.87</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>15.33</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>36.24</t>
+  </si>
+  <si>
+    <t>58.99</t>
+  </si>
+  <si>
+    <t>79.12</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>16.92</t>
+  </si>
+  <si>
+    <t>10.17</t>
+  </si>
+  <si>
+    <t>33.10</t>
+  </si>
+  <si>
+    <t>71.18</t>
+  </si>
+  <si>
+    <t>79.75</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>10.54</t>
+  </si>
+  <si>
+    <t>10.88</t>
+  </si>
+  <si>
+    <t>44.97</t>
+  </si>
+  <si>
+    <t>94.83</t>
+  </si>
+  <si>
+    <t>80.50</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t>9.96</t>
+  </si>
+  <si>
+    <t>57.86</t>
+  </si>
+  <si>
+    <t>133.17</t>
+  </si>
+  <si>
+    <t>83.12</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>12.35</t>
+  </si>
+  <si>
+    <t>15.91</t>
+  </si>
+  <si>
+    <t>56.78</t>
+  </si>
+  <si>
+    <t>135.54</t>
+  </si>
+  <si>
+    <t>80.12</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>17.75</t>
+  </si>
+  <si>
+    <t>31.10</t>
+  </si>
+  <si>
+    <t>65.98</t>
+  </si>
+  <si>
+    <t>81.38</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>9.54</t>
+  </si>
+  <si>
+    <t>8.17</t>
+  </si>
+  <si>
+    <t>25.40</t>
+  </si>
+  <si>
+    <t>50.58</t>
+  </si>
+  <si>
+    <t>75.75</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>14.12</t>
+  </si>
+  <si>
+    <t>7.96</t>
+  </si>
+  <si>
+    <t>39.85</t>
+  </si>
+  <si>
+    <t>63.76</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>8.79</t>
+  </si>
+  <si>
+    <t>15.41</t>
+  </si>
+  <si>
+    <t>28.57</t>
+  </si>
+  <si>
+    <t>80.25</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>8.46</t>
+  </si>
+  <si>
+    <t>16.91</t>
+  </si>
+  <si>
+    <t>78.62</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>10.22</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>11.99</t>
+  </si>
+  <si>
+    <t>14.32</t>
+  </si>
+  <si>
+    <t>23.88</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>13.17</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>17.42</t>
+  </si>
+  <si>
+    <t>22.94</t>
+  </si>
+  <si>
+    <t>66.88</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>13.68</t>
+  </si>
+  <si>
+    <t>28.40</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>54.62</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>6.71</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>22.93</t>
+  </si>
+  <si>
+    <t>34.01</t>
+  </si>
+  <si>
+    <t>63.50</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>16.40</t>
+  </si>
+  <si>
+    <t>32.34</t>
+  </si>
+  <si>
+    <t>84.25</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>7.58</t>
+  </si>
+  <si>
+    <t>6.92</t>
+  </si>
+  <si>
+    <t>17.06</t>
+  </si>
+  <si>
+    <t>31.39</t>
+  </si>
+  <si>
+    <t>86.12</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>7.91</t>
+  </si>
+  <si>
+    <t>21.64</t>
+  </si>
+  <si>
+    <t>36.59</t>
+  </si>
+  <si>
+    <t>90.12</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>7.08</t>
+  </si>
+  <si>
+    <t>16.74</t>
+  </si>
+  <si>
+    <t>34.28</t>
+  </si>
+  <si>
+    <t>89.38</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>6.33</t>
+  </si>
+  <si>
+    <t>22.38</t>
+  </si>
+  <si>
+    <t>59.47</t>
+  </si>
+  <si>
+    <t>88.62</t>
+  </si>
+  <si>
+    <t>7.46</t>
+  </si>
+  <si>
+    <t>30.11</t>
+  </si>
+  <si>
+    <t>84.44</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>19.11</t>
+  </si>
+  <si>
+    <t>46.46</t>
+  </si>
+  <si>
+    <t>74.88</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>16.67</t>
+  </si>
+  <si>
+    <t>28.10</t>
+  </si>
+  <si>
+    <t>78.88</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.76</t>
+  </si>
+  <si>
+    <t>14.76</t>
+  </si>
+  <si>
+    <t>97.25</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>15.96</t>
+  </si>
+  <si>
+    <t>29.11</t>
+  </si>
+  <si>
+    <t>70.75</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>7.35</t>
+  </si>
+  <si>
+    <t>15.60</t>
+  </si>
+  <si>
+    <t>70.62</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>15.11</t>
+  </si>
+  <si>
+    <t>25.59</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>15.61</t>
+  </si>
+  <si>
+    <t>28.92</t>
+  </si>
+  <si>
+    <t>58.12</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>25.02</t>
+  </si>
+  <si>
+    <t>41.23</t>
+  </si>
+  <si>
+    <t>64.75</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>25.96</t>
+  </si>
+  <si>
+    <t>42.84</t>
+  </si>
+  <si>
+    <t>69.25</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>26.87</t>
+  </si>
+  <si>
+    <t>46.03</t>
+  </si>
+  <si>
+    <t>71.62</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>25.93</t>
+  </si>
+  <si>
+    <t>58.55</t>
+  </si>
+  <si>
+    <t>67.75</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>32.24</t>
+  </si>
+  <si>
+    <t>68.78</t>
+  </si>
+  <si>
+    <t>61.75</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>42.95</t>
+  </si>
+  <si>
+    <t>97.34</t>
+  </si>
+  <si>
+    <t>60.75</t>
+  </si>
+  <si>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>46.49</t>
+  </si>
+  <si>
+    <t>102.65</t>
+  </si>
+  <si>
+    <t>58.50</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>34.56</t>
+  </si>
+  <si>
+    <t>71.46</t>
+  </si>
+  <si>
+    <t>69.50</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>27.16</t>
+  </si>
+  <si>
+    <t>59.36</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>32.07</t>
+  </si>
+  <si>
+    <t>53.92</t>
+  </si>
+  <si>
+    <t>49.75</t>
+  </si>
+  <si>
+    <t>14.14</t>
+  </si>
+  <si>
+    <t>25.69</t>
+  </si>
+  <si>
+    <t>77.62</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>9.66</t>
+  </si>
+  <si>
+    <t>19.01</t>
+  </si>
+  <si>
+    <t>76.62</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>6.91</t>
+  </si>
+  <si>
+    <t>12.27</t>
+  </si>
+  <si>
+    <t>64.25</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>9.63</t>
+  </si>
+  <si>
+    <t>12.40</t>
+  </si>
+  <si>
+    <t>23.38</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>13.81</t>
+  </si>
+  <si>
+    <t>18.85</t>
+  </si>
+  <si>
+    <t>50.62</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>12.41</t>
+  </si>
+  <si>
+    <t>24.77</t>
+  </si>
+  <si>
+    <t>60.62</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>20.93</t>
+  </si>
+  <si>
+    <t>62.25</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>12.96</t>
+  </si>
+  <si>
+    <t>20.78</t>
+  </si>
+  <si>
+    <t>56.25</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>10.36</t>
+  </si>
+  <si>
+    <t>18.07</t>
+  </si>
+  <si>
+    <t>77.50</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>14.20</t>
+  </si>
+  <si>
+    <t>26.07</t>
+  </si>
+  <si>
+    <t>72.12</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>17.36</t>
+  </si>
+  <si>
+    <t>30.45</t>
+  </si>
+  <si>
+    <t>82.38</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>16.26</t>
+  </si>
+  <si>
+    <t>31.95</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>20.84</t>
+  </si>
+  <si>
+    <t>51.01</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>26.73</t>
+  </si>
+  <si>
+    <t>68.75</t>
+  </si>
+  <si>
+    <t>84.62</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>18.12</t>
+  </si>
+  <si>
+    <t>41.19</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>27.38</t>
+  </si>
+  <si>
+    <t>71.75</t>
+  </si>
+  <si>
+    <t>7.33</t>
+  </si>
+  <si>
+    <t>22.13</t>
+  </si>
+  <si>
+    <t>86.38</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>23.12</t>
+  </si>
+  <si>
+    <t>18.53</t>
+  </si>
+  <si>
+    <t>36.34</t>
+  </si>
+  <si>
+    <t>103.76</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>20.94</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>9.34</t>
+  </si>
+  <si>
+    <t>94.87</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>37.47</t>
+  </si>
+  <si>
+    <t>16.05</t>
+  </si>
+  <si>
+    <t>23.74</t>
+  </si>
+  <si>
+    <t>93.88</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>57.42</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>22.63</t>
+  </si>
+  <si>
+    <t>40.66</t>
+  </si>
+  <si>
+    <t>102.52</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>65.07</t>
+  </si>
+  <si>
+    <t>36.08</t>
+  </si>
+  <si>
+    <t>60.86</t>
+  </si>
+  <si>
+    <t>107.14</t>
+  </si>
+  <si>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>59.86</t>
+  </si>
+  <si>
+    <t>41.34</t>
+  </si>
+  <si>
+    <t>70.17</t>
+  </si>
+  <si>
+    <t>106.15</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>54.55</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>41.92</t>
+  </si>
+  <si>
+    <t>70.56</t>
+  </si>
+  <si>
+    <t>102.44</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>54.87</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>38.53</t>
+  </si>
+  <si>
+    <t>100.86</t>
+  </si>
+  <si>
+    <t>105.88</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>47.35</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>46.16</t>
+  </si>
+  <si>
+    <t>116.65</t>
+  </si>
+  <si>
+    <t>106.27</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>50.04</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>59.46</t>
+  </si>
+  <si>
+    <t>173.02</t>
+  </si>
+  <si>
+    <t>104.48</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>65.34</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>63.82</t>
+  </si>
+  <si>
+    <t>183.02</t>
+  </si>
+  <si>
+    <t>102.14</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>36.67</t>
+  </si>
+  <si>
+    <t>38.08</t>
+  </si>
+  <si>
+    <t>92.59</t>
+  </si>
+  <si>
+    <t>111.81</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>41.85</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>28.81</t>
+  </si>
+  <si>
+    <t>62.17</t>
+  </si>
+  <si>
+    <t>101.16</t>
+  </si>
+  <si>
+    <t>45.16</t>
+  </si>
+  <si>
+    <t>46.92</t>
+  </si>
+  <si>
+    <t>76.20</t>
+  </si>
+  <si>
+    <t>84.45</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>14.48</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>16.48</t>
+  </si>
+  <si>
+    <t>28.87</t>
+  </si>
+  <si>
+    <t>109.59</t>
+  </si>
+  <si>
+    <t>14.97</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>8.58</t>
+  </si>
+  <si>
+    <t>17.52</t>
+  </si>
+  <si>
+    <t>101.77</t>
+  </si>
+  <si>
+    <t>39.14</t>
+  </si>
+  <si>
+    <t>5.31</t>
+  </si>
+  <si>
+    <t>89.45</t>
+  </si>
+  <si>
+    <t>36.12</t>
+  </si>
+  <si>
+    <t>14.06</t>
+  </si>
+  <si>
+    <t>15.81</t>
+  </si>
+  <si>
+    <t>49.03</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>44.88</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>19.03</t>
+  </si>
+  <si>
+    <t>21.22</t>
+  </si>
+  <si>
+    <t>87.43</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>28.60</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>16.53</t>
+  </si>
+  <si>
+    <t>25.37</t>
+  </si>
+  <si>
+    <t>94.54</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>8.89</t>
+  </si>
+  <si>
+    <t>14.66</t>
+  </si>
+  <si>
+    <t>88.49</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>19.69</t>
+  </si>
+  <si>
+    <t>25.31</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>21.16</t>
+  </si>
+  <si>
+    <t>34.69</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>19.90</t>
+  </si>
+  <si>
+    <t>30.14</t>
+  </si>
+  <si>
+    <t>34.30</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>26.37</t>
+  </si>
+  <si>
+    <t>39.31</t>
+  </si>
+  <si>
+    <t>35.47</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>19.29</t>
+  </si>
+  <si>
+    <t>37.96</t>
+  </si>
+  <si>
+    <t>36.18</t>
+  </si>
+  <si>
+    <t>6.59</t>
+  </si>
+  <si>
+    <t>74.92</t>
+  </si>
+  <si>
+    <t>38.54</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>34.24</t>
+  </si>
+  <si>
+    <t>113.55</t>
+  </si>
+  <si>
+    <t>36.43</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>22.67</t>
+  </si>
+  <si>
+    <t>57.06</t>
+  </si>
+  <si>
+    <t>34.61</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>16.97</t>
+  </si>
+  <si>
+    <t>28.41</t>
+  </si>
+  <si>
+    <t>36.89</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>13.48</t>
+  </si>
+  <si>
+    <t>44.36</t>
+  </si>
+  <si>
+    <t>25.66</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>14.95</t>
+  </si>
+  <si>
+    <t>28.13</t>
+  </si>
+  <si>
+    <t>69.35</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>36.19</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>54.35</t>
+  </si>
+  <si>
+    <t>31.87</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>12.52</t>
+  </si>
+  <si>
+    <t>20.47</t>
+  </si>
+  <si>
+    <t>58.02</t>
+  </si>
+  <si>
+    <t>47.42</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>14.60</t>
+  </si>
+  <si>
+    <t>26.63</t>
+  </si>
+  <si>
+    <t>46.25</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>58.88</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>29.67</t>
+  </si>
+  <si>
+    <t>51.17</t>
+  </si>
+  <si>
+    <t>47.24</t>
+  </si>
+  <si>
+    <t>60.91</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>33.81</t>
+  </si>
+  <si>
+    <t>57.15</t>
+  </si>
+  <si>
+    <t>46.21</t>
+  </si>
+  <si>
+    <t>50.32</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>32.20</t>
+  </si>
+  <si>
+    <t>56.27</t>
+  </si>
+  <si>
+    <t>38.47</t>
+  </si>
+  <si>
+    <t>47.76</t>
+  </si>
+  <si>
+    <t>32.41</t>
+  </si>
+  <si>
+    <t>83.97</t>
+  </si>
+  <si>
+    <t>53.08</t>
+  </si>
+  <si>
+    <t>48.01</t>
+  </si>
+  <si>
+    <t>37.31</t>
+  </si>
+  <si>
+    <t>86.60</t>
+  </si>
+  <si>
+    <t>48.23</t>
+  </si>
+  <si>
+    <t>50.85</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>48.44</t>
+  </si>
+  <si>
+    <t>134.74</t>
+  </si>
+  <si>
+    <t>50.49</t>
+  </si>
+  <si>
+    <t>42.90</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>53.46</t>
+  </si>
+  <si>
+    <t>147.83</t>
+  </si>
+  <si>
+    <t>69.86</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>34.82</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>28.20</t>
+  </si>
+  <si>
+    <t>67.65</t>
+  </si>
+  <si>
+    <t>73.71</t>
+  </si>
+  <si>
+    <t>48.21</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>23.06</t>
+  </si>
+  <si>
+    <t>47.46</t>
+  </si>
+  <si>
+    <t>67.93</t>
+  </si>
+  <si>
+    <t>37.58</t>
+  </si>
+  <si>
+    <t>37.40</t>
+  </si>
+  <si>
+    <t>62.63</t>
+  </si>
+  <si>
+    <t>44.28</t>
+  </si>
+  <si>
+    <t>24.42</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>13.05</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>69.10</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>26.83</t>
+  </si>
+  <si>
+    <t>6.37</t>
+  </si>
+  <si>
+    <t>13.02</t>
+  </si>
+  <si>
+    <t>56.49</t>
+  </si>
+  <si>
+    <t>25.80</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>6.20</t>
+  </si>
+  <si>
+    <t>51.72</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>40.64</t>
+  </si>
+  <si>
+    <t>36.42</t>
+  </si>
+  <si>
+    <t>27.61</t>
+  </si>
+  <si>
+    <t>14.42</t>
+  </si>
+  <si>
+    <t>27.62</t>
+  </si>
+  <si>
+    <t>53.62</t>
+  </si>
+  <si>
+    <t>29.93</t>
+  </si>
+  <si>
+    <t>7.40</t>
+  </si>
+  <si>
+    <t>16.79</t>
+  </si>
+  <si>
+    <t>45.67</t>
+  </si>
+  <si>
+    <t>31.07</t>
+  </si>
+  <si>
+    <t>15.69</t>
+  </si>
+  <si>
+    <t>25.19</t>
+  </si>
+  <si>
+    <t>41.17</t>
+  </si>
+  <si>
+    <t>29.60</t>
+  </si>
+  <si>
+    <t>15.34</t>
+  </si>
+  <si>
+    <t>24.66</t>
+  </si>
+  <si>
+    <t>61.73</t>
+  </si>
+  <si>
+    <t>39.50</t>
+  </si>
+  <si>
+    <t>16.04</t>
+  </si>
+  <si>
+    <t>28.58</t>
+  </si>
+  <si>
+    <t>55.39</t>
+  </si>
+  <si>
+    <t>40.60</t>
+  </si>
+  <si>
+    <t>22.51</t>
+  </si>
+  <si>
+    <t>37.68</t>
+  </si>
+  <si>
+    <t>60.28</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <t>29.36</t>
+  </si>
+  <si>
+    <t>36.01</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>58.92</t>
+  </si>
+  <si>
+    <t>33.60</t>
+  </si>
+  <si>
+    <t>32.36</t>
+  </si>
+  <si>
+    <t>100.57</t>
+  </si>
+  <si>
+    <t>66.48</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>31.16</t>
+  </si>
+  <si>
+    <t>19.10</t>
+  </si>
+  <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>47.32</t>
+  </si>
+  <si>
+    <t>22.07</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>14.33</t>
+  </si>
+  <si>
+    <t>25.32</t>
+  </si>
+  <si>
+    <t>67.41</t>
+  </si>
+  <si>
+    <t>23.85</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>72.98</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>29.08</t>
+  </si>
+  <si>
+    <t>36.21</t>
+  </si>
+  <si>
+    <t>23.19</t>
+  </si>
+  <si>
+    <t>42.14</t>
+  </si>
+  <si>
+    <t>50.50</t>
+  </si>
+  <si>
+    <t>24.14</t>
+  </si>
+  <si>
+    <t>33.26</t>
+  </si>
+  <si>
+    <t>6.83</t>
+  </si>
+  <si>
+    <t>16.01</t>
+  </si>
+  <si>
+    <t>55.38</t>
+  </si>
+  <si>
+    <t>32.33</t>
+  </si>
+  <si>
+    <t>34.29</t>
+  </si>
+  <si>
+    <t>15.58</t>
+  </si>
+  <si>
+    <t>27.64</t>
+  </si>
+  <si>
+    <t>38.88</t>
+  </si>
+  <si>
+    <t>38.12</t>
+  </si>
+  <si>
+    <t>38.71</t>
+  </si>
+  <si>
+    <t>25.23</t>
+  </si>
+  <si>
+    <t>46.99</t>
+  </si>
+  <si>
+    <t>50.88</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>41.42</t>
+  </si>
+  <si>
+    <t>39.83</t>
+  </si>
+  <si>
+    <t>32.60</t>
+  </si>
+  <si>
+    <t>55.83</t>
+  </si>
+  <si>
+    <t>52.25</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>39.38</t>
+  </si>
+  <si>
+    <t>39.71</t>
+  </si>
+  <si>
+    <t>35.43</t>
+  </si>
+  <si>
+    <t>60.78</t>
+  </si>
+  <si>
+    <t>53.38</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>37.46</t>
+  </si>
+  <si>
+    <t>37.71</t>
+  </si>
+  <si>
+    <t>32.73</t>
+  </si>
+  <si>
+    <t>57.79</t>
+  </si>
+  <si>
+    <t>45.75</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>36.92</t>
+  </si>
+  <si>
+    <t>37.38</t>
+  </si>
+  <si>
+    <t>73.63</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>33.73</t>
+  </si>
+  <si>
+    <t>37.78</t>
+  </si>
+  <si>
+    <t>37.87</t>
+  </si>
+  <si>
+    <t>76.80</t>
+  </si>
+  <si>
+    <t>57.38</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>39.12</t>
+  </si>
+  <si>
+    <t>48.16</t>
+  </si>
+  <si>
+    <t>109.30</t>
+  </si>
+  <si>
+    <t>47.12</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>40.08</t>
+  </si>
+  <si>
+    <t>38.79</t>
+  </si>
+  <si>
+    <t>53.11</t>
+  </si>
+  <si>
+    <t>114.95</t>
+  </si>
+  <si>
+    <t>42.88</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>30.21</t>
+  </si>
+  <si>
+    <t>35.54</t>
+  </si>
+  <si>
+    <t>74.02</t>
+  </si>
+  <si>
+    <t>56.12</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>33.96</t>
+  </si>
+  <si>
+    <t>33.42</t>
+  </si>
+  <si>
+    <t>29.53</t>
+  </si>
+  <si>
+    <t>58.44</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.21</t>
+  </si>
+  <si>
+    <t>41.84</t>
+  </si>
+  <si>
+    <t>73.08</t>
+  </si>
+  <si>
+    <t>27.25</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>24.08</t>
+  </si>
+  <si>
+    <t>30.25</t>
+  </si>
+  <si>
+    <t>13.69</t>
+  </si>
+  <si>
+    <t>27.40</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>22.59</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>19.51</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>29.46</t>
+  </si>
+  <si>
+    <t>31.12</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
+    <t>14.93</t>
+  </si>
+  <si>
+    <t>54.50</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>31.17</t>
+  </si>
+  <si>
+    <t>31.67</t>
+  </si>
+  <si>
+    <t>14.21</t>
+  </si>
+  <si>
+    <t>17.14</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>31.71</t>
+  </si>
+  <si>
+    <t>17.49</t>
+  </si>
+  <si>
+    <t>24.01</t>
+  </si>
+  <si>
+    <t>48.12</t>
+  </si>
+  <si>
+    <t>29.12</t>
+  </si>
+  <si>
+    <t>32.04</t>
+  </si>
+  <si>
+    <t>17.59</t>
+  </si>
+  <si>
+    <t>41.43</t>
+  </si>
+  <si>
+    <t>41.12</t>
+  </si>
+  <si>
+    <t>23.17</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>48.25</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>41.25</t>
+  </si>
+  <si>
+    <t>30.30</t>
+  </si>
+  <si>
+    <t>14.91</t>
+  </si>
+  <si>
+    <t>32.38</t>
+  </si>
+  <si>
+    <t>29.62</t>
+  </si>
+  <si>
+    <t>20.33</t>
+  </si>
+  <si>
+    <t>39.86</t>
+  </si>
+  <si>
+    <t>27.29</t>
+  </si>
+  <si>
+    <t>29.83</t>
+  </si>
+  <si>
+    <t>20.87</t>
+  </si>
+  <si>
+    <t>41.70</t>
+  </si>
+  <si>
+    <t>58.62</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>24.71</t>
+  </si>
+  <si>
+    <t>27.92</t>
+  </si>
+  <si>
+    <t>17.86</t>
+  </si>
+  <si>
+    <t>37.10</t>
+  </si>
+  <si>
+    <t>59.38</t>
+  </si>
+  <si>
+    <t>29.04</t>
+  </si>
+  <si>
+    <t>24.41</t>
+  </si>
+  <si>
+    <t>58.24</t>
+  </si>
+  <si>
+    <t>26.33</t>
+  </si>
+  <si>
+    <t>28.29</t>
+  </si>
+  <si>
+    <t>30.64</t>
+  </si>
+  <si>
+    <t>77.02</t>
+  </si>
+  <si>
+    <t>65.25</t>
+  </si>
+  <si>
+    <t>21.88</t>
+  </si>
+  <si>
+    <t>27.50</t>
+  </si>
+  <si>
+    <t>46.05</t>
+  </si>
+  <si>
+    <t>57.62</t>
+  </si>
+  <si>
+    <t>24.05</t>
+  </si>
+  <si>
+    <t>27.70</t>
+  </si>
+  <si>
+    <t>30.73</t>
+  </si>
+  <si>
+    <t>21.38</t>
+  </si>
+  <si>
+    <t>26.04</t>
+  </si>
+  <si>
+    <t>20.77</t>
+  </si>
+  <si>
+    <t>72.88</t>
   </si>
 </sst>
 </file>
@@ -412,7 +2623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,6 +2655,719 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -451,7 +3375,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,6 +3407,719 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -490,7 +4127,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,6 +4159,719 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -529,7 +4879,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,6 +4911,696 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -568,7 +5608,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -600,6 +5640,719 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
